--- a/docs/StructureDefinition-CareConnect-Patient-1.xlsx
+++ b/docs/StructureDefinition-CareConnect-Patient-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6847" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6845" uniqueCount="776">
   <si>
     <t>Path</t>
   </si>
@@ -551,11 +551,11 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>valueBoolean</t>
-  </si>
-  <si>
     <t xml:space="preserve">boolean
 </t>
+  </si>
+  <si>
+    <t>valueBoolean</t>
   </si>
   <si>
     <t>Indicates whether or not this language is preferred (over other languages up a certain level)</t>
@@ -1653,6 +1653,9 @@
   </si>
   <si>
     <t>Most, if not all systems capture it.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/marital-status</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -6586,9 +6589,7 @@
       <c r="A36" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="B36" t="s" s="2">
-        <v>169</v>
-      </c>
+      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>44</v>
       </c>
@@ -6609,7 +6610,7 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>156</v>
@@ -6699,7 +6700,7 @@
         <v>160</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>44</v>
@@ -6721,7 +6722,7 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>171</v>
@@ -9978,9 +9979,7 @@
       <c r="A66" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="B66" t="s" s="2">
-        <v>169</v>
-      </c>
+      <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
         <v>44</v>
       </c>
@@ -10001,7 +10000,7 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>156</v>
@@ -10091,7 +10090,7 @@
         <v>160</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>44</v>
@@ -10113,7 +10112,7 @@
         <v>44</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>185</v>
@@ -12159,7 +12158,7 @@
         <v>53</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>275</v>
@@ -16752,7 +16751,7 @@
       </c>
       <c r="X125" s="2"/>
       <c r="Y125" t="s" s="2">
-        <v>44</v>
+        <v>527</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>44</v>
@@ -16785,16 +16784,16 @@
         <v>44</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>44</v>
@@ -16802,7 +16801,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16914,7 +16913,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17028,7 +17027,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17051,19 +17050,19 @@
         <v>53</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>44</v>
@@ -17112,7 +17111,7 @@
         <v>44</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>42</v>
@@ -17127,7 +17126,7 @@
         <v>44</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>44</v>
@@ -17136,7 +17135,7 @@
         <v>44</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>44</v>
@@ -17144,7 +17143,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17256,7 +17255,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17370,7 +17369,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17396,16 +17395,16 @@
         <v>65</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>44</v>
@@ -17418,7 +17417,7 @@
         <v>44</v>
       </c>
       <c r="S131" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="T131" t="s" s="2">
         <v>44</v>
@@ -17454,7 +17453,7 @@
         <v>44</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>42</v>
@@ -17469,7 +17468,7 @@
         <v>44</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>44</v>
@@ -17478,7 +17477,7 @@
         <v>44</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>44</v>
@@ -17486,7 +17485,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17512,13 +17511,13 @@
         <v>130</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
@@ -17568,7 +17567,7 @@
         <v>44</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>42</v>
@@ -17583,7 +17582,7 @@
         <v>44</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>44</v>
@@ -17592,7 +17591,7 @@
         <v>44</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>44</v>
@@ -17600,7 +17599,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17626,14 +17625,14 @@
         <v>71</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>44</v>
@@ -17682,7 +17681,7 @@
         <v>44</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>42</v>
@@ -17697,7 +17696,7 @@
         <v>44</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>44</v>
@@ -17706,7 +17705,7 @@
         <v>44</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>44</v>
@@ -17714,7 +17713,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17740,14 +17739,14 @@
         <v>130</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>44</v>
@@ -17796,7 +17795,7 @@
         <v>44</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>42</v>
@@ -17811,7 +17810,7 @@
         <v>44</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>44</v>
@@ -17820,7 +17819,7 @@
         <v>44</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>44</v>
@@ -17828,7 +17827,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17851,19 +17850,19 @@
         <v>53</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>44</v>
@@ -17912,7 +17911,7 @@
         <v>44</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>42</v>
@@ -17927,7 +17926,7 @@
         <v>44</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>44</v>
@@ -17936,7 +17935,7 @@
         <v>44</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>44</v>
@@ -17944,7 +17943,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17970,16 +17969,16 @@
         <v>130</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>44</v>
@@ -18028,7 +18027,7 @@
         <v>44</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>42</v>
@@ -18043,7 +18042,7 @@
         <v>44</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>44</v>
@@ -18052,7 +18051,7 @@
         <v>44</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>44</v>
@@ -18060,7 +18059,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18083,19 +18082,19 @@
         <v>44</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>44</v>
@@ -18144,7 +18143,7 @@
         <v>44</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>42</v>
@@ -18159,7 +18158,7 @@
         <v>44</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>134</v>
@@ -18168,7 +18167,7 @@
         <v>44</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>44</v>
@@ -18176,7 +18175,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18199,17 +18198,17 @@
         <v>44</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>44</v>
@@ -18258,7 +18257,7 @@
         <v>44</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>42</v>
@@ -18273,7 +18272,7 @@
         <v>44</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>134</v>
@@ -18282,7 +18281,7 @@
         <v>44</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>44</v>
@@ -18290,7 +18289,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18313,19 +18312,19 @@
         <v>44</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>44</v>
@@ -18374,7 +18373,7 @@
         <v>44</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>42</v>
@@ -18386,10 +18385,10 @@
         <v>44</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>134</v>
@@ -18406,7 +18405,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18518,7 +18517,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18632,11 +18631,11 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -18661,7 +18660,7 @@
         <v>203</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M142" t="s" s="2">
         <v>146</v>
@@ -18714,7 +18713,7 @@
         <v>44</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>42</v>
@@ -18746,7 +18745,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18772,14 +18771,14 @@
         <v>161</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>44</v>
@@ -18807,10 +18806,10 @@
         <v>75</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>44</v>
@@ -18828,7 +18827,7 @@
         <v>44</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>42</v>
@@ -18843,7 +18842,7 @@
         <v>44</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>134</v>
@@ -18852,7 +18851,7 @@
         <v>44</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>44</v>
@@ -18860,7 +18859,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18886,14 +18885,14 @@
         <v>283</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>44</v>
@@ -18942,7 +18941,7 @@
         <v>44</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>42</v>
@@ -18966,7 +18965,7 @@
         <v>44</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>44</v>
@@ -18974,7 +18973,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19086,7 +19085,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19200,7 +19199,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19263,10 +19262,10 @@
         <v>165</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>44</v>
@@ -19316,7 +19315,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19432,7 +19431,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19546,7 +19545,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19660,7 +19659,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19772,7 +19771,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -19884,7 +19883,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19998,7 +19997,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20024,13 +20023,13 @@
         <v>348</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="N154" t="s" s="2">
         <v>352</v>
@@ -20082,7 +20081,7 @@
         <v>44</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>42</v>
@@ -20106,7 +20105,7 @@
         <v>44</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>44</v>
@@ -20114,7 +20113,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20140,14 +20139,14 @@
         <v>433</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>44</v>
@@ -20196,7 +20195,7 @@
         <v>44</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>42</v>
@@ -20220,7 +20219,7 @@
         <v>44</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>44</v>
@@ -20228,7 +20227,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20340,7 +20339,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20454,7 +20453,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20570,7 +20569,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20682,7 +20681,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20798,7 +20797,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20912,7 +20911,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21024,7 +21023,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21138,7 +21137,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21250,7 +21249,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21362,7 +21361,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21476,7 +21475,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21590,7 +21589,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21619,11 +21618,11 @@
         <v>395</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>44</v>
@@ -21652,7 +21651,7 @@
       </c>
       <c r="X168" s="2"/>
       <c r="Y168" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>44</v>
@@ -21670,7 +21669,7 @@
         <v>44</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>42</v>
@@ -21694,7 +21693,7 @@
         <v>44</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>44</v>
@@ -21702,7 +21701,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21728,14 +21727,14 @@
         <v>267</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>44</v>
@@ -21784,7 +21783,7 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
@@ -21793,13 +21792,13 @@
         <v>52</v>
       </c>
       <c r="AH169" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AI169" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>134</v>
@@ -21808,7 +21807,7 @@
         <v>44</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>44</v>
@@ -21816,7 +21815,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21842,10 +21841,10 @@
         <v>260</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -21896,7 +21895,7 @@
         <v>44</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>42</v>
@@ -21911,7 +21910,7 @@
         <v>44</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AK170" t="s" s="2">
         <v>134</v>
@@ -21928,7 +21927,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21951,19 +21950,19 @@
         <v>53</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>44</v>
@@ -22012,7 +22011,7 @@
         <v>44</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>42</v>
@@ -22024,10 +22023,10 @@
         <v>44</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>134</v>
@@ -22044,7 +22043,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22156,7 +22155,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22270,11 +22269,11 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -22299,7 +22298,7 @@
         <v>203</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M174" t="s" s="2">
         <v>146</v>
@@ -22352,7 +22351,7 @@
         <v>44</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>42</v>
@@ -22384,7 +22383,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22410,16 +22409,16 @@
         <v>161</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>44</v>
@@ -22444,13 +22443,13 @@
         <v>44</v>
       </c>
       <c r="W175" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="X175" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="Y175" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="Z175" t="s" s="2">
         <v>44</v>
@@ -22468,7 +22467,7 @@
         <v>44</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>52</v>
@@ -22483,7 +22482,7 @@
         <v>44</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AK175" t="s" s="2">
         <v>134</v>
@@ -22492,7 +22491,7 @@
         <v>44</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AN175" t="s" s="2">
         <v>44</v>
@@ -22500,7 +22499,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22526,16 +22525,16 @@
         <v>161</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>44</v>
@@ -22560,13 +22559,13 @@
         <v>44</v>
       </c>
       <c r="W176" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="X176" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="Z176" t="s" s="2">
         <v>44</v>
@@ -22584,7 +22583,7 @@
         <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -22599,7 +22598,7 @@
         <v>44</v>
       </c>
       <c r="AJ176" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AK176" t="s" s="2">
         <v>134</v>
@@ -22608,7 +22607,7 @@
         <v>44</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>44</v>
@@ -22616,7 +22615,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22642,14 +22641,14 @@
         <v>161</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>44</v>
@@ -22674,13 +22673,13 @@
         <v>44</v>
       </c>
       <c r="W177" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>44</v>
@@ -22698,7 +22697,7 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>42</v>
@@ -22713,7 +22712,7 @@
         <v>44</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>134</v>
@@ -22730,7 +22729,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22753,19 +22752,19 @@
         <v>44</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>44</v>
@@ -22814,7 +22813,7 @@
         <v>44</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>42</v>
@@ -22826,13 +22825,13 @@
         <v>44</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AL178" t="s" s="2">
         <v>44</v>
@@ -22846,7 +22845,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22958,7 +22957,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23072,11 +23071,11 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
@@ -23101,7 +23100,7 @@
         <v>203</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M181" t="s" s="2">
         <v>146</v>
@@ -23154,7 +23153,7 @@
         <v>44</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>42</v>
@@ -23186,7 +23185,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23212,16 +23211,16 @@
         <v>161</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>44</v>
@@ -23270,7 +23269,7 @@
         <v>44</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>52</v>
@@ -23285,16 +23284,16 @@
         <v>44</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AK182" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AL182" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM182" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AN182" t="s" s="2">
         <v>44</v>
@@ -23302,7 +23301,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23325,19 +23324,19 @@
         <v>44</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>44</v>
@@ -23386,7 +23385,7 @@
         <v>44</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>42</v>
@@ -23401,16 +23400,16 @@
         <v>44</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AL183" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AN183" t="s" s="2">
         <v>44</v>
@@ -23418,11 +23417,11 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
@@ -23441,16 +23440,16 @@
         <v>44</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" t="s" s="2">
@@ -23500,7 +23499,7 @@
         <v>44</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>42</v>
@@ -23515,7 +23514,7 @@
         <v>44</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AK184" t="s" s="2">
         <v>134</v>
@@ -23524,7 +23523,7 @@
         <v>44</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>44</v>
@@ -23532,7 +23531,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23558,16 +23557,16 @@
         <v>267</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>44</v>
@@ -23616,7 +23615,7 @@
         <v>44</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>42</v>
@@ -23631,10 +23630,10 @@
         <v>44</v>
       </c>
       <c r="AJ185" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AL185" t="s" s="2">
         <v>44</v>
@@ -23648,7 +23647,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -23671,19 +23670,19 @@
         <v>53</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>44</v>
@@ -23732,7 +23731,7 @@
         <v>44</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>42</v>
@@ -23744,10 +23743,10 @@
         <v>44</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>134</v>
@@ -23764,7 +23763,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -23876,7 +23875,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23990,11 +23989,11 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
@@ -24019,7 +24018,7 @@
         <v>203</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M189" t="s" s="2">
         <v>146</v>
@@ -24072,7 +24071,7 @@
         <v>44</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>42</v>
@@ -24104,7 +24103,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24127,16 +24126,16 @@
         <v>53</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" t="s" s="2">
@@ -24186,7 +24185,7 @@
         <v>44</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>52</v>
@@ -24210,7 +24209,7 @@
         <v>44</v>
       </c>
       <c r="AM190" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AN190" t="s" s="2">
         <v>44</v>
@@ -24218,7 +24217,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24244,10 +24243,10 @@
         <v>71</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" s="2"/>
@@ -24277,10 +24276,10 @@
         <v>165</v>
       </c>
       <c r="X191" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="Y191" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="Z191" t="s" s="2">
         <v>44</v>
@@ -24298,7 +24297,7 @@
         <v>44</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>52</v>
@@ -24313,7 +24312,7 @@
         <v>44</v>
       </c>
       <c r="AJ191" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="AK191" t="s" s="2">
         <v>134</v>

--- a/docs/StructureDefinition-CareConnect-Patient-1.xlsx
+++ b/docs/StructureDefinition-CareConnect-Patient-1.xlsx
@@ -1632,8 +1632,8 @@
   </si>
   <si>
     <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-23T00:00:00+00:00"/&gt;
-  &lt;end value="2010-07-01T00:00:00+01:00"/&gt;
+  &lt;start value="2010-03-23"/&gt;
+  &lt;end value="2010-07-01"/&gt;
 &lt;/valuePeriod&gt;</t>
   </si>
   <si>
